--- a/biology/Histoire de la zoologie et de la botanique/Eduard_Daniël_van_Oort/Eduard_Daniël_van_Oort.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eduard_Daniël_van_Oort/Eduard_Daniël_van_Oort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eduard_Dani%C3%ABl_van_Oort</t>
+          <t>Eduard_Daniël_van_Oort</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eduard Daniël van Oort est un ornithologue  néerlandais, né le 31 octobre 1876 à Barneveld et mort le 21 septembre 1933 à Leyde.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eduard_Dani%C3%ABl_van_Oort</t>
+          <t>Eduard_Daniël_van_Oort</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il reçoit le titre de docteur en mars 1901 avec une thèse sur l’ostéologie de la queue des oiseaux. Oort avait la charge des collections d’oiseaux au Museum d’Histoire Naturelle de Leyde. En 1915, il devient le directeur de cette institution, une fonction qu’il occupe jusqu’à sa mort. Il était également professeur extraordinaire de l’université de la ville. Il consacre le discours inaugural de sa chaire sur la question de la migration et son étude.
 Van Oort s’intéresse au baguage des oiseaux dès que celui-ci commence sa mise en place dans son pays. Il fonde la première station d’observation et fait, de Leyde, le principal centre de l’étude des oiseaux aux Pays-Bas.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eduard_Dani%C3%ABl_van_Oort</t>
+          <t>Eduard_Daniël_van_Oort</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Francis Charles Robert Jourdain (1934). Obituary, Ibis, 76 (1) : 180-181.</t>
         </is>
